--- a/data/trans_orig/P34_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>230385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>206739</v>
+        <v>207660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251084</v>
+        <v>253834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3969045358480883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3561672425628326</v>
+        <v>0.3577548614688519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.432564159254607</v>
+        <v>0.437303143108156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>315</v>
@@ -765,19 +765,19 @@
         <v>325372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>294475</v>
+        <v>295894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>357200</v>
+        <v>355337</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3566809983957534</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3228115807678239</v>
+        <v>0.3243669461168641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3915724268201488</v>
+        <v>0.3895304570294867</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>552</v>
@@ -786,19 +786,19 @@
         <v>555756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>521491</v>
+        <v>520141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592194</v>
+        <v>591806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3723226601611817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3493671955719097</v>
+        <v>0.3484623310776824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3967336560301554</v>
+        <v>0.3964738871883444</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>350069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>329370</v>
+        <v>326620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373715</v>
+        <v>372794</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6030954641519117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5674358407453931</v>
+        <v>0.5626968568918439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6438327574371675</v>
+        <v>0.642245138531148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>560</v>
@@ -836,19 +836,19 @@
         <v>586848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>555020</v>
+        <v>556883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>617745</v>
+        <v>616326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6433190016042466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6084275731798511</v>
+        <v>0.6104695429705134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6771884192321762</v>
+        <v>0.6756330538831359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>893</v>
@@ -857,19 +857,19 @@
         <v>936918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>900480</v>
+        <v>900868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>971183</v>
+        <v>972533</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6276773398388183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6032663439698445</v>
+        <v>0.6035261128116556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6506328044280902</v>
+        <v>0.6515376689223176</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>381794</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>350585</v>
+        <v>351082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417453</v>
+        <v>412837</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3585874729733484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3292753125977072</v>
+        <v>0.3297421412691268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3920791809222782</v>
+        <v>0.3877439574789305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>235</v>
@@ -982,19 +982,19 @@
         <v>241708</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216451</v>
+        <v>213734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269347</v>
+        <v>270361</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.229682254192451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2056819985502008</v>
+        <v>0.2031002614622749</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2559459125956418</v>
+        <v>0.2569092845741032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>610</v>
@@ -1003,19 +1003,19 @@
         <v>623502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>576744</v>
+        <v>582265</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>664213</v>
+        <v>664773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2945111152841978</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2724252031552096</v>
+        <v>0.2750329767097833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3137409554520946</v>
+        <v>0.3140054887472059</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>682922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>647263</v>
+        <v>651879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>714131</v>
+        <v>713634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6414125270266516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6079208190777218</v>
+        <v>0.6122560425210695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.670724687402293</v>
+        <v>0.6702578587308733</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>788</v>
@@ -1053,19 +1053,19 @@
         <v>810650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>783011</v>
+        <v>781997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>835907</v>
+        <v>838624</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.770317745807549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7440540874043581</v>
+        <v>0.7430907154258968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7943180014497991</v>
+        <v>0.7968997385377251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1455</v>
@@ -1074,19 +1074,19 @@
         <v>1493572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1452861</v>
+        <v>1452301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1540330</v>
+        <v>1534809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7054888847158022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6862590445479053</v>
+        <v>0.685994511252794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7275747968447904</v>
+        <v>0.7249670232902166</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>425610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>392267</v>
+        <v>392138</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>457128</v>
+        <v>460372</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3842101810497809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3541112770259655</v>
+        <v>0.3539944788456366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4126628991161707</v>
+        <v>0.4155914979564769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -1199,19 +1199,19 @@
         <v>317603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289469</v>
+        <v>292090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>349095</v>
+        <v>346902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.32171476001244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2932169868854759</v>
+        <v>0.2958715625346846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3536146221832444</v>
+        <v>0.3513929881988855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>745</v>
@@ -1220,19 +1220,19 @@
         <v>743213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>699640</v>
+        <v>700530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>787800</v>
+        <v>788948</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3547602897568669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3339614844480076</v>
+        <v>0.3343865762413302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3760434607282102</v>
+        <v>0.3765913219492626</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>682142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>650624</v>
+        <v>647380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>715485</v>
+        <v>715614</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6157898189502191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5873371008838294</v>
+        <v>0.5844085020435231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6458887229740345</v>
+        <v>0.6460055211543635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -1270,19 +1270,19 @@
         <v>669616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638124</v>
+        <v>640317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>697750</v>
+        <v>695129</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.67828523998756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6463853778167555</v>
+        <v>0.6486070118011147</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7067830131145239</v>
+        <v>0.7041284374653155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1321</v>
@@ -1291,19 +1291,19 @@
         <v>1351758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1307171</v>
+        <v>1306023</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1395331</v>
+        <v>1394441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6452397102431331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6239565392717901</v>
+        <v>0.6234086780507374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6660385155519927</v>
+        <v>0.6656134237586697</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>194308</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173048</v>
+        <v>172443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>216906</v>
+        <v>214204</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4361878219677147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3884624098453616</v>
+        <v>0.3871052498325839</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4869163879295921</v>
+        <v>0.480851045924529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -1416,19 +1416,19 @@
         <v>139486</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121901</v>
+        <v>121381</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157116</v>
+        <v>157889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4110871033675796</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3592594794716753</v>
+        <v>0.3577278814604086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4630442886048565</v>
+        <v>0.4653234786756101</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>333</v>
@@ -1437,19 +1437,19 @@
         <v>333795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>307689</v>
+        <v>304970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>361970</v>
+        <v>363786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4253351592126498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3920701187572298</v>
+        <v>0.388605409434027</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4612380704376611</v>
+        <v>0.4635521949239554</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>251161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>228563</v>
+        <v>231265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272421</v>
+        <v>273026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5638121780322852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.513083612070407</v>
+        <v>0.519148954075471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6115375901546379</v>
+        <v>0.6128947501674161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1487,19 +1487,19 @@
         <v>199825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182195</v>
+        <v>181422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>217410</v>
+        <v>217930</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5889128966324203</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5369557113951436</v>
+        <v>0.5346765213243899</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6407405205283251</v>
+        <v>0.6422721185395915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>438</v>
@@ -1508,19 +1508,19 @@
         <v>450985</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>422810</v>
+        <v>420994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>477091</v>
+        <v>479810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5746648407873503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5387619295623393</v>
+        <v>0.5364478050760445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6079298812427704</v>
+        <v>0.611394590565973</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1232096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1178438</v>
+        <v>1180044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1291796</v>
+        <v>1288657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3852238159249997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.36844728814923</v>
+        <v>0.3689492423916942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4038892010316536</v>
+        <v>0.4029080038124149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1005</v>
@@ -1633,19 +1633,19 @@
         <v>1024169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>971635</v>
+        <v>973141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1075749</v>
+        <v>1077750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.31119272225952</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2952304404449189</v>
+        <v>0.2956880158752066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3268652395810349</v>
+        <v>0.3274731845888933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2240</v>
@@ -1654,19 +1654,19 @@
         <v>2256265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2177622</v>
+        <v>2184648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2334914</v>
+        <v>2334310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3476794194573199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3355609036506889</v>
+        <v>0.3366435478401214</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3597987407511795</v>
+        <v>0.3597057515383583</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1966295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1906595</v>
+        <v>1909734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2019953</v>
+        <v>2018347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6147761840750002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5961107989683464</v>
+        <v>0.5970919961875851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.63155271185077</v>
+        <v>0.6310507576083058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2206</v>
@@ -1704,19 +1704,19 @@
         <v>2266939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2215359</v>
+        <v>2213358</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2319473</v>
+        <v>2317967</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.68880727774048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6731347604189651</v>
+        <v>0.6725268154111067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.704769559555081</v>
+        <v>0.7043119841247935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4107</v>
@@ -1725,19 +1725,19 @@
         <v>4233234</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4154585</v>
+        <v>4155189</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4311877</v>
+        <v>4304851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6523205805426802</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6402012592488209</v>
+        <v>0.6402942484616417</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6644390963493113</v>
+        <v>0.6633564521598786</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>312451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282854</v>
+        <v>280981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>346233</v>
+        <v>342945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3026527589925294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2739839030180234</v>
+        <v>0.2721704330517282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3353758605188419</v>
+        <v>0.3321905017844397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -2090,19 +2090,19 @@
         <v>320746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>288400</v>
+        <v>289810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>352151</v>
+        <v>349997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2896732853574435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2604613469323146</v>
+        <v>0.2617346551592318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3180360854387675</v>
+        <v>0.3160905959657527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>586</v>
@@ -2111,19 +2111,19 @@
         <v>633197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>586655</v>
+        <v>589289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>677732</v>
+        <v>678427</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2959358618417363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2741836398796791</v>
+        <v>0.2754148271678517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3167503027677808</v>
+        <v>0.3170752385645604</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>719922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>686140</v>
+        <v>689428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749519</v>
+        <v>751392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6973472410074706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6646241394811581</v>
+        <v>0.6678094982155602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7260160969819766</v>
+        <v>0.7278295669482717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>724</v>
@@ -2161,19 +2161,19 @@
         <v>786521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>755116</v>
+        <v>757270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>818867</v>
+        <v>817457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7103267146425565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6819639145612324</v>
+        <v>0.6839094040342473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7395386530676851</v>
+        <v>0.738265344840768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1401</v>
@@ -2182,19 +2182,19 @@
         <v>1506444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1461909</v>
+        <v>1461214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1552986</v>
+        <v>1550352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7040641381582637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6832496972322192</v>
+        <v>0.6829247614354397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7258163601203209</v>
+        <v>0.7245851728321484</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>288447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>261619</v>
+        <v>259287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319464</v>
+        <v>317657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2971424480023772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2695052280457038</v>
+        <v>0.2671037248919895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3290944281641517</v>
+        <v>0.3272326595920159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -2307,19 +2307,19 @@
         <v>317372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>286878</v>
+        <v>289337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>349958</v>
+        <v>349134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2914324618336355</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2634306189009586</v>
+        <v>0.2656884483486582</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3213554502638582</v>
+        <v>0.3205986948428417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -2328,19 +2328,19 @@
         <v>605819</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>562142</v>
+        <v>563453</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>645790</v>
+        <v>649100</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2941235216265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2729184795071197</v>
+        <v>0.273554841848406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3135293008563473</v>
+        <v>0.3151365257488049</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>682290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651273</v>
+        <v>653080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>709118</v>
+        <v>711450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7028575519976228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6709055718358482</v>
+        <v>0.6727673404079838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7304947719542961</v>
+        <v>0.7328962751080105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>719</v>
@@ -2378,19 +2378,19 @@
         <v>771635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>739049</v>
+        <v>739873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>802129</v>
+        <v>799670</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7085675381663645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6786445497361419</v>
+        <v>0.6794013051571584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7365693810990415</v>
+        <v>0.7343115516513419</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1364</v>
@@ -2399,19 +2399,19 @@
         <v>1453924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1413953</v>
+        <v>1410643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1497601</v>
+        <v>1496290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7058764783735001</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6864706991436527</v>
+        <v>0.6848634742511951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7270815204928803</v>
+        <v>0.7264451581515941</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>290026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>260988</v>
+        <v>261593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>317570</v>
+        <v>319652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3288561124389341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2959297668625772</v>
+        <v>0.2966163418508864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3600878757935456</v>
+        <v>0.3624479810274028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -2524,19 +2524,19 @@
         <v>264120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236460</v>
+        <v>237116</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294720</v>
+        <v>294195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3025879690772329</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2708995130108861</v>
+        <v>0.2716508877550641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3376447901337892</v>
+        <v>0.3370435618203991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>513</v>
@@ -2545,19 +2545,19 @@
         <v>554146</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>512585</v>
+        <v>515511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>595942</v>
+        <v>597104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3157898027617549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2921055166453833</v>
+        <v>0.2937727906443561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3396077285243802</v>
+        <v>0.3402699513132506</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>591898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>564354</v>
+        <v>562272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620936</v>
+        <v>620331</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6711438875610659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6399121242064544</v>
+        <v>0.6375520189725973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7040702331374228</v>
+        <v>0.703383658149114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -2595,19 +2595,19 @@
         <v>608750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>578150</v>
+        <v>578675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>636410</v>
+        <v>635754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6974120309227672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6623552098662111</v>
+        <v>0.6629564381796009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7291004869891143</v>
+        <v>0.7283491122449359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1132</v>
@@ -2616,19 +2616,19 @@
         <v>1200648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1158852</v>
+        <v>1157690</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1242209</v>
+        <v>1239283</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6842101972382451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6603922714756197</v>
+        <v>0.6597300486867494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7078944833546166</v>
+        <v>0.7062272093556438</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>176207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154037</v>
+        <v>153968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198952</v>
+        <v>199157</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3521536280465704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3078452862885044</v>
+        <v>0.3077072172341224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3976087943369931</v>
+        <v>0.3980186925597011</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -2741,19 +2741,19 @@
         <v>130806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112667</v>
+        <v>112566</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152437</v>
+        <v>153346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2920884157263922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2515854028729235</v>
+        <v>0.2513587846208527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3403918675214625</v>
+        <v>0.3424219322197031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -2762,19 +2762,19 @@
         <v>307013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>277085</v>
+        <v>277824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334952</v>
+        <v>341254</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3237851980789315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2922224590647057</v>
+        <v>0.2930023126654714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3532512248496837</v>
+        <v>0.359896732433116</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>324164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>301419</v>
+        <v>301214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346334</v>
+        <v>346403</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6478463719534296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6023912056630075</v>
+        <v>0.6019813074402989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.692154713711496</v>
+        <v>0.6922927827658775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -2812,19 +2812,19 @@
         <v>317023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>295392</v>
+        <v>294483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335162</v>
+        <v>335263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7079115842736078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6596081324785376</v>
+        <v>0.6575780677802969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7484145971270766</v>
+        <v>0.7486412153791473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -2833,19 +2833,19 @@
         <v>641186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>613247</v>
+        <v>606945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>671114</v>
+        <v>670375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6762148019210685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6467487751503163</v>
+        <v>0.6401032675668842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7077775409352942</v>
+        <v>0.7069976873345289</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1067131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1011638</v>
+        <v>1010143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1124521</v>
+        <v>1125975</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3152152409264024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2988235619024288</v>
+        <v>0.2983816949245819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3321674688573494</v>
+        <v>0.3325968330261187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -2958,19 +2958,19 @@
         <v>1033043</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>981073</v>
+        <v>983671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1094502</v>
+        <v>1095828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2937307981302319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2789537647118807</v>
+        <v>0.279692401104437</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3112058027641383</v>
+        <v>0.311582685607207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1951</v>
@@ -2979,19 +2979,19 @@
         <v>2100174</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2024790</v>
+        <v>2016790</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2189712</v>
+        <v>2178886</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3042682582076646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2933467246968337</v>
+        <v>0.2921878062624474</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.317240270627492</v>
+        <v>0.3156718436661979</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2318273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2260883</v>
+        <v>2259429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2373766</v>
+        <v>2375261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6847847590735977</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6678325311426506</v>
+        <v>0.6674031669738814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7011764380975712</v>
+        <v>0.7016183050754181</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2301</v>
@@ -3029,19 +3029,19 @@
         <v>2483930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2422471</v>
+        <v>2421145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2535900</v>
+        <v>2533302</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7062692018697682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6887941972358615</v>
+        <v>0.6884173143927926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.721046235288119</v>
+        <v>0.7203075988955628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4479</v>
@@ -3050,19 +3050,19 @@
         <v>4802203</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4712665</v>
+        <v>4723491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4877587</v>
+        <v>4885587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6957317417923354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.682759729372508</v>
+        <v>0.6843281563338022</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7066532753031656</v>
+        <v>0.7078121937375537</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>369078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>337428</v>
+        <v>335592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>402728</v>
+        <v>399613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3302526822209373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3019322581101944</v>
+        <v>0.3002895025957597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3603632573238682</v>
+        <v>0.357576018540812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>347</v>
@@ -3415,19 +3415,19 @@
         <v>387278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>354787</v>
+        <v>355225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>420706</v>
+        <v>427563</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3087131637989621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828129677511093</v>
+        <v>0.2831624628214198</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3353595600588846</v>
+        <v>0.340825727508636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>700</v>
@@ -3436,19 +3436,19 @@
         <v>756356</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>709267</v>
+        <v>711890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>803671</v>
+        <v>806518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3188612187587883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2990097915774445</v>
+        <v>0.3001153351277397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3388080258965473</v>
+        <v>0.3400082950899539</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>748483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>714833</v>
+        <v>717948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>780133</v>
+        <v>781969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6697473177790627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.639636742676132</v>
+        <v>0.6424239814591881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6980677418898057</v>
+        <v>0.6997104974042403</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>836</v>
@@ -3486,19 +3486,19 @@
         <v>867214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>833786</v>
+        <v>826929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>899705</v>
+        <v>899267</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6912868362010379</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6646404399411155</v>
+        <v>0.6591742724913643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7171870322488909</v>
+        <v>0.7168375371785805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1540</v>
@@ -3507,19 +3507,19 @@
         <v>1615698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1568383</v>
+        <v>1565536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1662787</v>
+        <v>1660164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6811387812412117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6611919741034527</v>
+        <v>0.6599917049100461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7009902084225554</v>
+        <v>0.6998846648722603</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>320614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293118</v>
+        <v>291332</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>351103</v>
+        <v>347535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3542613440862986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3238796381388885</v>
+        <v>0.3219071060438086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.387950117585021</v>
+        <v>0.384008480089556</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>263</v>
@@ -3632,19 +3632,19 @@
         <v>287516</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>259139</v>
+        <v>259258</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317383</v>
+        <v>320145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.287195058973591</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2588497311513677</v>
+        <v>0.2589685220410666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3170288987123566</v>
+        <v>0.3197873555758926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>578</v>
@@ -3653,19 +3653,19 @@
         <v>608129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>568425</v>
+        <v>566216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>653218</v>
+        <v>648989</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3190376341417191</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2982080941499578</v>
+        <v>0.2970491159070577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3426918951220939</v>
+        <v>0.3404731775430588</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>584406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553917</v>
+        <v>557485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>611902</v>
+        <v>613688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6457386559137014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6120498824149789</v>
+        <v>0.6159915199104441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6761203618611115</v>
+        <v>0.6780928939561915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>683</v>
@@ -3703,19 +3703,19 @@
         <v>713601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>683734</v>
+        <v>680972</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>741978</v>
+        <v>741859</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7128049410264089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6829711012876435</v>
+        <v>0.6802126444241079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7411502688486323</v>
+        <v>0.7410314779589335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1246</v>
@@ -3724,19 +3724,19 @@
         <v>1298008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1252919</v>
+        <v>1257148</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1337712</v>
+        <v>1339921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.680962365858281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6573081048779056</v>
+        <v>0.6595268224569412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7017919058500417</v>
+        <v>0.7029508840929423</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>315044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286879</v>
+        <v>286911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341859</v>
+        <v>343614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.387120912241979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3525126924030135</v>
+        <v>0.3525515569964161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4200712859620669</v>
+        <v>0.4222273725967904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -3849,19 +3849,19 @@
         <v>262477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235237</v>
+        <v>235673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>287721</v>
+        <v>291643</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3423629595471112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3068321547481982</v>
+        <v>0.3074019250430086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3752909256372413</v>
+        <v>0.3804060032159074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>541</v>
@@ -3870,19 +3870,19 @@
         <v>577520</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>538135</v>
+        <v>538151</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>618992</v>
+        <v>615193</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3654095602325736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3404894521843341</v>
+        <v>0.3404997538223503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3916495771779235</v>
+        <v>0.3892461221304381</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>498768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>471953</v>
+        <v>470198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>526933</v>
+        <v>526901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.612879087758021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5799287140379331</v>
+        <v>0.5777726274032097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6474873075969865</v>
+        <v>0.647448443003584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>485</v>
@@ -3920,19 +3920,19 @@
         <v>504185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>478941</v>
+        <v>475019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>531425</v>
+        <v>530989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6576370404528887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6247090743627588</v>
+        <v>0.6195939967840929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6931678452518019</v>
+        <v>0.6925980749569917</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>960</v>
@@ -3941,19 +3941,19 @@
         <v>1002954</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>961482</v>
+        <v>965281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1042339</v>
+        <v>1042323</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6345904397674264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6083504228220766</v>
+        <v>0.6107538778695619</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6595105478156661</v>
+        <v>0.6595002461776498</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>218102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195348</v>
+        <v>194518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>241453</v>
+        <v>241590</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4322072978622644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3871154984028942</v>
+        <v>0.3854717170819306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4784812173320052</v>
+        <v>0.4787531127840712</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -4066,19 +4066,19 @@
         <v>161820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141539</v>
+        <v>141686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182763</v>
+        <v>185987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3311555795486966</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2896529117487193</v>
+        <v>0.2899535543087434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3740155338213311</v>
+        <v>0.3806126235585548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>353</v>
@@ -4087,19 +4087,19 @@
         <v>379922</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>351672</v>
+        <v>349207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>412661</v>
+        <v>411830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3824939259501685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3540525752318327</v>
+        <v>0.3515705396437966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4154540901700745</v>
+        <v>0.4146175064308681</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>286522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263171</v>
+        <v>263034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>309276</v>
+        <v>310106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5677927021377357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5215187826679943</v>
+        <v>0.5212468872159287</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6128845015971048</v>
+        <v>0.6145282829180695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>308</v>
@@ -4137,19 +4137,19 @@
         <v>326832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>305889</v>
+        <v>302665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347113</v>
+        <v>346966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6688444204513034</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.625984466178669</v>
+        <v>0.6193873764414451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7103470882512808</v>
+        <v>0.7100464456912565</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>570</v>
@@ -4158,19 +4158,19 @@
         <v>613354</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>580615</v>
+        <v>581446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>641604</v>
+        <v>644069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6175060740498315</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5845459098299256</v>
+        <v>0.5853824935691319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6459474247681674</v>
+        <v>0.6484294603562037</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1222837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1163513</v>
+        <v>1164319</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1280125</v>
+        <v>1280410</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3660074060849618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3482510451623636</v>
+        <v>0.3484922828330707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3831542542642526</v>
+        <v>0.3832395271448111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>995</v>
@@ -4283,19 +4283,19 @@
         <v>1099091</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1047764</v>
+        <v>1041828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1160758</v>
+        <v>1158553</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3130488940293319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2984296313025577</v>
+        <v>0.2967388449430016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3306132056353712</v>
+        <v>0.3299851581995011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2172</v>
@@ -4304,19 +4304,19 @@
         <v>2321928</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2239719</v>
+        <v>2231625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2394483</v>
+        <v>2396852</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3388715482596617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3268737208141639</v>
+        <v>0.3256924258785751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3494605782446181</v>
+        <v>0.3498062658343219</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2118180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2060892</v>
+        <v>2060607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2177504</v>
+        <v>2176698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6339925939150383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6168457457357474</v>
+        <v>0.6167604728551885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6517489548376365</v>
+        <v>0.6515077171669286</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2312</v>
@@ -4354,19 +4354,19 @@
         <v>2411833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2350166</v>
+        <v>2352371</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2463160</v>
+        <v>2469096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6869511059706681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6693867943646288</v>
+        <v>0.6700148418004989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7015703686974423</v>
+        <v>0.7032611550569984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4316</v>
@@ -4375,19 +4375,19 @@
         <v>4530013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4457458</v>
+        <v>4455089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4612222</v>
+        <v>4620316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6611284517403383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6505394217553819</v>
+        <v>0.6501937341656781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6731262791858361</v>
+        <v>0.6743075741214251</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>164852</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142294</v>
+        <v>143526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189461</v>
+        <v>188877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3366704895167758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2906003399365649</v>
+        <v>0.2931175789881373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3869269738088356</v>
+        <v>0.3857345707022506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>331</v>
@@ -4740,19 +4740,19 @@
         <v>219657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198867</v>
+        <v>199962</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240019</v>
+        <v>242005</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3565172700095072</v>
+        <v>0.3565172700095073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3227738846377937</v>
+        <v>0.3245505711556626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3895657427125934</v>
+        <v>0.3927894291839333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>502</v>
@@ -4761,19 +4761,19 @@
         <v>384510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>356268</v>
+        <v>353528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>418406</v>
+        <v>415385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3477288024798433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3221888288442846</v>
+        <v>0.3197103037217665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3783823724867664</v>
+        <v>0.3756505499474423</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>324803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300194</v>
+        <v>300778</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347361</v>
+        <v>346129</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6633295104832243</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6130730261911642</v>
+        <v>0.6142654292977496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7093996600634348</v>
+        <v>0.7068824210118627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>520</v>
@@ -4811,19 +4811,19 @@
         <v>396463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376101</v>
+        <v>374115</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>417253</v>
+        <v>416158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6434827299904926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6104342572874065</v>
+        <v>0.6072105708160661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6772261153622061</v>
+        <v>0.6754494288443368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>799</v>
@@ -4832,19 +4832,19 @@
         <v>721265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>687369</v>
+        <v>690390</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749507</v>
+        <v>752247</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6522711975201567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6216176275132337</v>
+        <v>0.6243494500525578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6778111711557154</v>
+        <v>0.6802896962782338</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>284856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256763</v>
+        <v>255840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>317953</v>
+        <v>317522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2987977620996412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2693292650722146</v>
+        <v>0.2683610606385485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3335141658297222</v>
+        <v>0.3330618773499123</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>522</v>
@@ -4957,19 +4957,19 @@
         <v>335643</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>309994</v>
+        <v>310321</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>362928</v>
+        <v>363065</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3022740050628339</v>
+        <v>0.3022740050628338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.279175325979237</v>
+        <v>0.2794695742302392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3268464140291047</v>
+        <v>0.3269701078912456</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>829</v>
@@ -4978,19 +4978,19 @@
         <v>620499</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>581663</v>
+        <v>578263</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>663132</v>
+        <v>660002</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3006681544212026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2818498688640282</v>
+        <v>0.2802021175512727</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3213263643402922</v>
+        <v>0.319809753832531</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>668486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>635389</v>
+        <v>635820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>696579</v>
+        <v>697502</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7012022379003587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6664858341702778</v>
+        <v>0.6669381226500876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7306707349277853</v>
+        <v>0.7316389393614511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1080</v>
@@ -5028,19 +5028,19 @@
         <v>774749</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>747464</v>
+        <v>747327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>800398</v>
+        <v>800071</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6977259949371662</v>
+        <v>0.6977259949371661</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.673153585970895</v>
+        <v>0.6730298921087544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7208246740207624</v>
+        <v>0.720530425769761</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1681</v>
@@ -5049,19 +5049,19 @@
         <v>1443235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1400602</v>
+        <v>1403732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1482071</v>
+        <v>1485471</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6993318455787975</v>
+        <v>0.6993318455787974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6786736356597077</v>
+        <v>0.6801902461674689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7181501311359717</v>
+        <v>0.7197978824487273</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>379616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>345734</v>
+        <v>342860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>416380</v>
+        <v>413437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.366457522074365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3337496726085349</v>
+        <v>0.3309759566951553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4019475614034135</v>
+        <v>0.3991059085344144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>552</v>
@@ -5174,19 +5174,19 @@
         <v>382514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>356979</v>
+        <v>357397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>413138</v>
+        <v>411703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3656030622996219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3411967044123407</v>
+        <v>0.3415965755184091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3948733193317772</v>
+        <v>0.3935017053048017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>929</v>
@@ -5195,19 +5195,19 @@
         <v>762130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>719937</v>
+        <v>716187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>804908</v>
+        <v>808567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3660281688855235</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3457644740517632</v>
+        <v>0.3439633538339723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.386573441070469</v>
+        <v>0.3883308965896414</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>656291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619527</v>
+        <v>622470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>690173</v>
+        <v>693047</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6335424779256349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5980524385965863</v>
+        <v>0.6008940914655856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6662503273914646</v>
+        <v>0.6690240433048448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>962</v>
@@ -5245,19 +5245,19 @@
         <v>663741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>633117</v>
+        <v>634552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>689276</v>
+        <v>688858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6343969377003781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6051266806682229</v>
+        <v>0.6064982946951982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6588032955876594</v>
+        <v>0.6584034244815908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1607</v>
@@ -5266,19 +5266,19 @@
         <v>1320031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1277253</v>
+        <v>1273594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1362224</v>
+        <v>1365974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6339718311144765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6134265589295309</v>
+        <v>0.6116691034103586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6542355259482366</v>
+        <v>0.6560366461660277</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>400044</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>368618</v>
+        <v>366669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>433944</v>
+        <v>435537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4118642220093378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3795090839143169</v>
+        <v>0.3775030501133158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.446766092615815</v>
+        <v>0.448405792953267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>429</v>
@@ -5391,19 +5391,19 @@
         <v>325684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>300035</v>
+        <v>296926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>353479</v>
+        <v>353169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3610407962032038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3326068643350498</v>
+        <v>0.3291606881251313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3918527832455171</v>
+        <v>0.3915098570992614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>811</v>
@@ -5412,19 +5412,19 @@
         <v>725728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>682569</v>
+        <v>682469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>769623</v>
+        <v>771306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3873916124820664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3643530868687054</v>
+        <v>0.3642998656490096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.410822560416116</v>
+        <v>0.4117207764082869</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>571257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>537357</v>
+        <v>535764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>602683</v>
+        <v>604632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5881357779906622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5532339073841852</v>
+        <v>0.5515942070467336</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6204909160856833</v>
+        <v>0.6224969498866842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>883</v>
@@ -5462,19 +5462,19 @@
         <v>576386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>548591</v>
+        <v>548901</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>602035</v>
+        <v>605144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6389592037967963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6081472167544828</v>
+        <v>0.6084901429007387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6673931356649502</v>
+        <v>0.6708393118748689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1444</v>
@@ -5483,19 +5483,19 @@
         <v>1147643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1103748</v>
+        <v>1102065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1190802</v>
+        <v>1190902</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6126083875179337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5891774395838841</v>
+        <v>0.5882792235917129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6356469131312947</v>
+        <v>0.6357001343509903</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1229369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1164463</v>
+        <v>1170070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1291268</v>
+        <v>1289142</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.356317640434432</v>
+        <v>0.3563176404344319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3375055408904243</v>
+        <v>0.3391307065745086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.374258479216614</v>
+        <v>0.3736422382779326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1834</v>
@@ -5608,19 +5608,19 @@
         <v>1263498</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1215007</v>
+        <v>1215979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1318670</v>
+        <v>1313709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3438242736588414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.330628881039674</v>
+        <v>0.3308932913106808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3588375982583408</v>
+        <v>0.3574876039558996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3071</v>
@@ -5629,19 +5629,19 @@
         <v>2492867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2419113</v>
+        <v>2416450</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2569508</v>
+        <v>2577841</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3498740167422522</v>
+        <v>0.3498740167422523</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3395226068907112</v>
+        <v>0.3391489258401229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.360630522699105</v>
+        <v>0.3618000831368752</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2220836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2158937</v>
+        <v>2161063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2285742</v>
+        <v>2280135</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6436823595655681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6257415207833861</v>
+        <v>0.6263577617220673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6624944591095758</v>
+        <v>0.6608692934254917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3445</v>
@@ -5679,19 +5679,19 @@
         <v>2411339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2356167</v>
+        <v>2361128</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2459830</v>
+        <v>2458858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6561757263411585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6411624017416591</v>
+        <v>0.6425123960441005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.669371118960326</v>
+        <v>0.669106708689319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5531</v>
@@ -5700,19 +5700,19 @@
         <v>4632175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4555534</v>
+        <v>4547201</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4705929</v>
+        <v>4708592</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6501259832577477</v>
+        <v>0.6501259832577475</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.639369477300895</v>
+        <v>0.6381999168631247</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6604773931092888</v>
+        <v>0.6608510741598772</v>
       </c>
     </row>
     <row r="18">
